--- a/resultats/resultats_t1_2022.xlsx
+++ b/resultats/resultats_t1_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">structure</t>
   </si>
@@ -197,25 +197,16 @@
     <t xml:space="preserve">SISEF</t>
   </si>
   <si>
-    <t xml:space="preserve">Directeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR/INS/DIFFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRINS/DIFFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serice Coordination et Développement de la Statistique</t>
+    <t xml:space="preserve">Service de la Coordination Statistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Statistques Economique et Sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISEF/DIFFA</t>
   </si>
   <si>
     <t xml:space="preserve">Service  de la Coordination Statisique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Statistques Economique et Sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISEF/DIFFA</t>
   </si>
   <si>
     <t xml:space="preserve">SBD</t>
@@ -382,8 +373,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F79" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F75" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:F75"/>
   <tableColumns count="6">
     <tableColumn id="1" name="structure"/>
     <tableColumn id="2" name="division"/>
@@ -719,19 +710,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>38.5</v>
+        <v>58.3</v>
       </c>
       <c r="E2" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F2" t="n">
-        <v>45.3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -739,19 +730,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>72.7</v>
       </c>
       <c r="E3" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F3" t="n">
-        <v>53.9</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="4">
@@ -759,19 +750,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C4" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" t="n">
-        <v>85.6</v>
+        <v>87.6</v>
       </c>
       <c r="E4" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F4" t="n">
-        <v>80.6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -779,19 +770,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="C5" t="n">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>84.5</v>
       </c>
       <c r="E5" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F5" t="n">
-        <v>76.4</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="6">
@@ -799,19 +790,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>76.5</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F6" t="n">
-        <v>73.8</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="7">
@@ -819,19 +810,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>81.8</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F7" t="n">
-        <v>77.8</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="8">
@@ -839,19 +830,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="E8" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F8" t="n">
-        <v>36.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -859,19 +850,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>51.9</v>
+        <v>89.8</v>
       </c>
       <c r="E9" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F9" t="n">
-        <v>55.3</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="10">
@@ -879,19 +870,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>90</v>
+        <v>86.7</v>
       </c>
       <c r="E10" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F10" t="n">
-        <v>83.9</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="11">
@@ -908,10 +899,10 @@
         <v>83.3</v>
       </c>
       <c r="E11" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F11" t="n">
-        <v>78.9</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="12">
@@ -928,10 +919,10 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F12" t="n">
-        <v>91.4</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="13">
@@ -948,10 +939,10 @@
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F13" t="n">
-        <v>91.4</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="14">
@@ -959,19 +950,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>932</v>
+        <v>713</v>
       </c>
       <c r="C14" t="n">
-        <v>630</v>
+        <v>551</v>
       </c>
       <c r="D14" t="n">
-        <v>67.6</v>
+        <v>77.3</v>
       </c>
       <c r="E14" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
       <c r="F14" t="n">
-        <v>67.1</v>
+        <v>79.2</v>
       </c>
     </row>
   </sheetData>
@@ -1016,13 +1007,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>35.3</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="3">
@@ -1033,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>36.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -1050,13 +1041,13 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>45.5</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="5">
@@ -1067,13 +1058,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="6">
@@ -1084,13 +1075,13 @@
         <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1101,13 +1092,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>23.1</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="8">
@@ -1118,13 +1109,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>78.9</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="9">
@@ -1271,13 +1262,13 @@
         <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1288,13 +1279,13 @@
         <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
-        <v>73.4</v>
+        <v>84.4</v>
       </c>
     </row>
     <row r="19">
@@ -1305,13 +1296,13 @@
         <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n">
-        <v>82.9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -1322,13 +1313,13 @@
         <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>84.8</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="21">
@@ -1339,13 +1330,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
         <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>76.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1356,13 +1347,13 @@
         <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>81.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -1373,10 +1364,10 @@
         <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
         <v>22.4</v>
@@ -1390,13 +1381,13 @@
         <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>42.1</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="25">
@@ -1407,13 +1398,13 @@
         <v>41</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>41.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1424,13 +1415,13 @@
         <v>42</v>
       </c>
       <c r="C26" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>54.7</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1432,13 @@
         <v>43</v>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>48.1</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="28">
@@ -1475,13 +1466,13 @@
         <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>90</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="30">
@@ -1492,10 +1483,10 @@
         <v>46</v>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
         <v>100</v>
@@ -1630,13 +1621,13 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>35.3</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="3">
@@ -1648,13 +1639,13 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>36.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -1666,13 +1657,13 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>45.5</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="5">
@@ -1686,13 +1677,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="6">
@@ -1706,13 +1697,13 @@
         <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>93.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1746,13 +1737,13 @@
         <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>87.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1766,13 +1757,13 @@
         <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>23.1</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="10">
@@ -1786,13 +1777,13 @@
         <v>54</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>85.7</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="11">
@@ -1806,13 +1797,13 @@
         <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1826,13 +1817,13 @@
         <v>56</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -1840,14 +1831,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13"/>
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
@@ -1861,7 +1854,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -1881,13 +1874,13 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
@@ -1901,13 +1894,13 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>100</v>
@@ -1918,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="18">
@@ -1944,13 +1937,13 @@
         <v>60</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="19">
@@ -1964,13 +1957,13 @@
         <v>61</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="20">
@@ -1984,13 +1977,13 @@
         <v>62</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1998,19 +1991,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="22">
@@ -2018,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="23">
@@ -2038,19 +2031,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D23" t="n">
         <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>77.8</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="24">
@@ -2058,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="25">
@@ -2078,19 +2071,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>84.6</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="26">
@@ -2098,19 +2091,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>83.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -2118,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -2138,19 +2131,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -2158,19 +2151,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>90.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -2178,16 +2171,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>100</v>
@@ -2198,19 +2191,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>76.9</v>
       </c>
     </row>
     <row r="32">
@@ -2218,16 +2211,16 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
         <v>100</v>
@@ -2238,16 +2231,16 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>100</v>
@@ -2258,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
         <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="35">
@@ -2278,19 +2271,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>76.9</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="36">
@@ -2298,16 +2291,16 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
         <v>100</v>
@@ -2318,16 +2311,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>100</v>
@@ -2338,19 +2331,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -2358,19 +2351,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>87.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -2378,16 +2371,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>100</v>
@@ -2398,19 +2391,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="42">
@@ -2418,99 +2411,99 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>66.7</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
@@ -2518,19 +2511,19 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D47" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F47" t="n">
-        <v>81.4</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="48">
@@ -2538,19 +2531,19 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>57.1</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="49">
@@ -2558,56 +2551,56 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>84.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>80.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>100</v>
@@ -2615,79 +2608,79 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>81.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
-        <v>87.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
         <v>100</v>
@@ -2695,102 +2688,102 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>62.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F57" t="n">
-        <v>57.1</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>81.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E60" t="n">
         <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>75</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="61">
@@ -2798,159 +2791,159 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D61" t="n">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>22.4</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F62" t="n">
-        <v>66.7</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>30.8</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="n">
         <v>12</v>
       </c>
-      <c r="B64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" t="n">
-        <v>10</v>
-      </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>57.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D66" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>54.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D67" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D68" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>42.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
@@ -2958,10 +2951,10 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -2978,96 +2971,86 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" t="s">
-        <v>92</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C71"/>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>88.9</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" t="s">
-        <v>93</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C72"/>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="n">
         <v>14</v>
       </c>
-      <c r="B73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1</v>
-      </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" t="s">
-        <v>46</v>
-      </c>
-      <c r="C74" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74"/>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>100</v>
@@ -3075,91 +3058,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75"/>
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
       <c r="D75" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s">
-        <v>38</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76" t="n">
-        <v>9</v>
-      </c>
-      <c r="E76" t="n">
-        <v>8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>88.9</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77"/>
-      <c r="D77" t="n">
-        <v>14</v>
-      </c>
-      <c r="E77" t="n">
-        <v>10</v>
-      </c>
-      <c r="F77" t="n">
-        <v>71.4</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78" t="n">
-        <v>5</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5</v>
-      </c>
-      <c r="F78" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" t="n">
-        <v>8</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8</v>
-      </c>
-      <c r="F79" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3182,7 +3095,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3199,13 +3112,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>445</v>
+        <v>276</v>
       </c>
       <c r="C2" t="n">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="D2" t="n">
-        <v>65.6</v>
+        <v>85.1</v>
       </c>
     </row>
   </sheetData>

--- a/resultats/resultats_t1_2022.xlsx
+++ b/resultats/resultats_t1_2022.xlsx
@@ -719,10 +719,10 @@
         <v>58.3</v>
       </c>
       <c r="E2" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="3">
@@ -739,10 +739,10 @@
         <v>72.7</v>
       </c>
       <c r="E3" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F3" t="n">
-        <v>75.8</v>
+        <v>76.1</v>
       </c>
     </row>
     <row r="4">
@@ -759,10 +759,10 @@
         <v>87.6</v>
       </c>
       <c r="E4" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F4" t="n">
-        <v>87</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="5">
@@ -779,10 +779,10 @@
         <v>84.5</v>
       </c>
       <c r="E5" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F5" t="n">
-        <v>84.7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -799,10 +799,10 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F6" t="n">
-        <v>96.3</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="7">
@@ -819,10 +819,10 @@
         <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F7" t="n">
-        <v>96.3</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="8">
@@ -839,10 +839,10 @@
         <v>27.7</v>
       </c>
       <c r="E8" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="9">
@@ -859,10 +859,10 @@
         <v>89.8</v>
       </c>
       <c r="E9" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F9" t="n">
-        <v>88.6</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         <v>86.7</v>
       </c>
       <c r="E10" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F10" t="n">
-        <v>86.3</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="11">
@@ -890,19 +890,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>83.3</v>
+        <v>92.9</v>
       </c>
       <c r="E11" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F11" t="n">
-        <v>83.8</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="12">
@@ -919,10 +919,10 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F12" t="n">
-        <v>96.3</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="13">
@@ -939,10 +939,10 @@
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F13" t="n">
-        <v>96.3</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="14">
@@ -950,19 +950,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="C14" t="n">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D14" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="E14" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="F14" t="n">
-        <v>79.2</v>
+        <v>79.7</v>
       </c>
     </row>
   </sheetData>
@@ -1500,13 +1500,13 @@
         <v>47</v>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>89.5</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="32">
@@ -1517,13 +1517,13 @@
         <v>38</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>88.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1534,13 +1534,13 @@
         <v>48</v>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>71.4</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="34">
@@ -2995,13 +2995,13 @@
       </c>
       <c r="C71"/>
       <c r="D71" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E71" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F71" t="n">
-        <v>89.5</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="72">
@@ -3013,13 +3013,13 @@
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>88.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
@@ -3031,13 +3031,13 @@
       </c>
       <c r="C73"/>
       <c r="D73" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>71.4</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="74">
@@ -3112,13 +3112,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C2" t="n">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D2" t="n">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
     </row>
   </sheetData>

--- a/resultats/resultats_t1_2022.xlsx
+++ b/resultats/resultats_t1_2022.xlsx
@@ -719,10 +719,10 @@
         <v>58.3</v>
       </c>
       <c r="E2" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F2" t="n">
-        <v>65.3</v>
+        <v>65.1</v>
       </c>
     </row>
     <row r="3">
@@ -739,10 +739,10 @@
         <v>72.7</v>
       </c>
       <c r="E3" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F3" t="n">
-        <v>76.1</v>
+        <v>75.9</v>
       </c>
     </row>
     <row r="4">
@@ -750,19 +750,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="C4" t="n">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="D4" t="n">
-        <v>87.6</v>
+        <v>90.8</v>
       </c>
       <c r="E4" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F4" t="n">
-        <v>87.3</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="5">
@@ -779,10 +779,10 @@
         <v>84.5</v>
       </c>
       <c r="E5" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F5" t="n">
-        <v>85</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="6">
@@ -799,10 +799,10 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F6" t="n">
-        <v>96.6</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="7">
@@ -819,10 +819,10 @@
         <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F7" t="n">
-        <v>96.6</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="8">
@@ -839,10 +839,10 @@
         <v>27.7</v>
       </c>
       <c r="E8" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F8" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="9">
@@ -859,10 +859,10 @@
         <v>89.8</v>
       </c>
       <c r="E9" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F9" t="n">
-        <v>88.9</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         <v>86.7</v>
       </c>
       <c r="E10" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F10" t="n">
-        <v>86.6</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="11">
@@ -899,10 +899,10 @@
         <v>92.9</v>
       </c>
       <c r="E11" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F11" t="n">
-        <v>91.3</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="12">
@@ -913,16 +913,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F12" t="n">
-        <v>96.6</v>
+        <v>66.4</v>
       </c>
     </row>
     <row r="13">
@@ -939,10 +939,10 @@
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F13" t="n">
-        <v>96.6</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="14">
@@ -950,19 +950,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>699</v>
+        <v>623</v>
       </c>
       <c r="C14" t="n">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="D14" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F14" t="n">
-        <v>79.7</v>
+        <v>79.1</v>
       </c>
     </row>
   </sheetData>
@@ -1126,10 +1126,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -1143,13 +1143,13 @@
         <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="11">
@@ -1160,13 +1160,13 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>77.4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -1177,13 +1177,13 @@
         <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>96.6</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="13">
@@ -1194,10 +1194,10 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -1211,13 +1211,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>90.6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -1228,13 +1228,13 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>76.9</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="16">
@@ -1245,13 +1245,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
-        <v>96.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1552,10 +1552,10 @@
         <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
@@ -1837,10 +1837,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
@@ -1857,10 +1857,10 @@
         <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>100</v>
@@ -1877,10 +1877,10 @@
         <v>58</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
@@ -1897,10 +1897,10 @@
         <v>59</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>100</v>
@@ -1917,13 +1917,13 @@
         <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>88.9</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>60</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>83.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -1957,13 +1957,13 @@
         <v>61</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>77.8</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="20">
@@ -1997,13 +1997,13 @@
         <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>84.6</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="22">
@@ -2017,13 +2017,13 @@
         <v>57</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>83.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -2037,13 +2037,13 @@
         <v>58</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -2057,13 +2057,13 @@
         <v>59</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -2077,13 +2077,13 @@
         <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>90.9</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="26">
@@ -2097,10 +2097,10 @@
         <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>100</v>
@@ -2137,10 +2137,10 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>100</v>
@@ -2177,10 +2177,10 @@
         <v>58</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>100</v>
@@ -2197,13 +2197,13 @@
         <v>31</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>76.9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -2217,10 +2217,10 @@
         <v>57</v>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" t="n">
         <v>100</v>
@@ -2237,10 +2237,10 @@
         <v>58</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>100</v>
@@ -2257,13 +2257,13 @@
         <v>32</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -2277,13 +2277,13 @@
         <v>57</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>87.5</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="36">
@@ -2297,10 +2297,10 @@
         <v>58</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
         <v>100</v>
@@ -2337,10 +2337,10 @@
         <v>33</v>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
@@ -2357,10 +2357,10 @@
         <v>57</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
         <v>100</v>
@@ -2397,13 +2397,13 @@
         <v>59</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -3050,10 +3050,10 @@
         <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
@@ -3115,10 +3115,10 @@
         <v>262</v>
       </c>
       <c r="C2" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" t="n">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
     </row>
   </sheetData>

--- a/resultats/resultats_t1_2022.xlsx
+++ b/resultats/resultats_t1_2022.xlsx
@@ -1,310 +1,322 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\PAP 2022\Evaluation_PAP\resultats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
-    <sheet name="Direction" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Division" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Service" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Dossiers_prioritaires" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Direction" sheetId="1" r:id="rId1"/>
+    <sheet name="Division" sheetId="2" r:id="rId2"/>
+    <sheet name="Service" sheetId="3" r:id="rId3"/>
+    <sheet name="Dossiers_prioritaires" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
-  <si>
-    <t xml:space="preserve">structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de taches prévues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de taches réalisées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taux de réalisation (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taux d'exécution dossiers prioritaires (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score final (75% taux de réalisation + 25% taux dossiers prioritaires)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCMIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCNCEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRFM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSEDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSTAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensemble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMEOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIDDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR/INS/AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR/INS/DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR/INS/DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR/INS/MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR/INS/NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR/INS/TA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR/INS/TI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR/INS/ZR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSIBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMP/EF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DARC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DGCFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAF/D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFC/R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service de la Coopération et de la Coordination des Statistiques Sectorielles (SCCSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service de la Programmation et du Suivi et Evaluation (SPSE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service des Méthodologies, de la Normalisation et de l’Assurance-Qualité des Statistiques Publiques (SMNAQSP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Coordination de la Production Statistique Régionale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation, Diffusion et Archives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation, Diffusion et et Archives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imprimerie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service  de la Coordination Statistique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Statistiques Economiques et Sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service de la Coordination Statistique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Statistques Economique et Sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISEF/DIFFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service  de la Coordination Statisique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCSPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS/R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCOS/AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEDA/BDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERPDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dossier</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="96">
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>Nombre de taches prévues</t>
+  </si>
+  <si>
+    <t>Nombre de taches réalisées</t>
+  </si>
+  <si>
+    <t>Taux de réalisation (%)</t>
+  </si>
+  <si>
+    <t>Taux d'exécution dossiers prioritaires (%)</t>
+  </si>
+  <si>
+    <t>Score final (75% taux de réalisation + 25% taux dossiers prioritaires)</t>
+  </si>
+  <si>
+    <t>BCR</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DCMIS</t>
+  </si>
+  <si>
+    <t>DCNCEE</t>
+  </si>
+  <si>
+    <t>DER</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>DRFM</t>
+  </si>
+  <si>
+    <t>DRH</t>
+  </si>
+  <si>
+    <t>DSEDS</t>
+  </si>
+  <si>
+    <t>ENSTAT</t>
+  </si>
+  <si>
+    <t>PNIN</t>
+  </si>
+  <si>
+    <t>USE</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>UAFP</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>UMEOT</t>
+  </si>
+  <si>
+    <t>DCSC</t>
+  </si>
+  <si>
+    <t>DDR</t>
+  </si>
+  <si>
+    <t>DIDDA</t>
+  </si>
+  <si>
+    <t>DR/INS/AZ</t>
+  </si>
+  <si>
+    <t>DR/INS/DA</t>
+  </si>
+  <si>
+    <t>DR/INS/DO</t>
+  </si>
+  <si>
+    <t>DR/INS/MI</t>
+  </si>
+  <si>
+    <t>DR/INS/NY</t>
+  </si>
+  <si>
+    <t>DR/INS/TA</t>
+  </si>
+  <si>
+    <t>DR/INS/TI</t>
+  </si>
+  <si>
+    <t>DR/INS/ZR</t>
+  </si>
+  <si>
+    <t>DSIBD</t>
+  </si>
+  <si>
+    <t>DCN</t>
+  </si>
+  <si>
+    <t>DCO</t>
+  </si>
+  <si>
+    <t>DSEE</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>DMP/EF</t>
+  </si>
+  <si>
+    <t>DARC</t>
+  </si>
+  <si>
+    <t>DGCFC</t>
+  </si>
+  <si>
+    <t>DED</t>
+  </si>
+  <si>
+    <t>DEPDD</t>
+  </si>
+  <si>
+    <t>DSS</t>
+  </si>
+  <si>
+    <t>DAF/D</t>
+  </si>
+  <si>
+    <t>DFC/R</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>Service de la Coopération et de la Coordination des Statistiques Sectorielles (SCCSS)</t>
+  </si>
+  <si>
+    <t>Service de la Programmation et du Suivi et Evaluation (SPSE)</t>
+  </si>
+  <si>
+    <t>Service des Méthodologies, de la Normalisation et de l’Assurance-Qualité des Statistiques Publiques (SMNAQSP)</t>
+  </si>
+  <si>
+    <t>Service Coordination de la Production Statistique Régionale</t>
+  </si>
+  <si>
+    <t>Documentation, Diffusion et Archives</t>
+  </si>
+  <si>
+    <t>Documentation, Diffusion et et Archives</t>
+  </si>
+  <si>
+    <t>Imprimerie</t>
+  </si>
+  <si>
+    <t>Service  de la Coordination Statistique</t>
+  </si>
+  <si>
+    <t>Service Statistiques Economiques et Sociales</t>
+  </si>
+  <si>
+    <t>SISEF</t>
+  </si>
+  <si>
+    <t>Service de la Coordination Statistique</t>
+  </si>
+  <si>
+    <t>Service Statistques Economique et Sociales</t>
+  </si>
+  <si>
+    <t>SISEF/DIFFA</t>
+  </si>
+  <si>
+    <t>Service  de la Coordination Statisique</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>SCSM</t>
+  </si>
+  <si>
+    <t>SCSPI</t>
+  </si>
+  <si>
+    <t>SSC</t>
+  </si>
+  <si>
+    <t>SSPC</t>
+  </si>
+  <si>
+    <t>SCE</t>
+  </si>
+  <si>
+    <t>SCSE</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>SMAD</t>
+  </si>
+  <si>
+    <t>SOT</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>SAS/R</t>
+  </si>
+  <si>
+    <t>SCOS/AD</t>
+  </si>
+  <si>
+    <t>SEDA/BDS</t>
+  </si>
+  <si>
+    <t>SSM</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>SEF</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>SFC</t>
+  </si>
+  <si>
+    <t>SGC</t>
+  </si>
+  <si>
+    <t>SED</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SERPDD</t>
+  </si>
+  <si>
+    <t>SIDD</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Dossier</t>
+  </si>
+  <si>
+    <t>Remplacer par le minimum du taux des services de la DSEDS</t>
+  </si>
+  <si>
+    <t>Observation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -313,12 +325,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -333,18 +351,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F14" totalsRowCount="0" totalsRowShown="0">
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F14" totalsRowShown="0">
   <autoFilter ref="A1:F14"/>
   <tableColumns count="6">
     <tableColumn id="1" name="structure"/>
@@ -358,8 +394,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E35" totalsRowCount="0" totalsRowShown="0">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E35" totalsRowShown="0">
   <autoFilter ref="A1:E35"/>
   <tableColumns count="5">
     <tableColumn id="1" name="structure"/>
@@ -372,23 +408,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F75" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F75"/>
-  <tableColumns count="6">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G75" totalsRowShown="0">
+  <autoFilter ref="A1:G75"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="structure"/>
     <tableColumn id="2" name="division"/>
     <tableColumn id="3" name="service"/>
     <tableColumn id="4" name="Nombre de taches prévues"/>
     <tableColumn id="5" name="Nombre de taches réalisées"/>
     <tableColumn id="6" name="Taux de réalisation (%)"/>
+    <tableColumn id="7" name="Observation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D2" totalsRowCount="0" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Dossier"/>
@@ -678,14 +715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,284 +742,286 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>14</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>58.3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>85.5</v>
       </c>
-      <c r="F2" t="n">
-        <v>65.1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>72.7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>85.5</v>
       </c>
-      <c r="F3" t="n">
-        <v>75.9</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>207</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>188</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>90.8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>85.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>89.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>116</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>98</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>84.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>85.5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>84.8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
         <v>85.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>96.4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>25</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
         <v>85.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>96.4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>112</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>27.7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>85.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>42.1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>59</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>53</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>89.8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>85.5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>88.7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>15</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>13</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>86.7</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>85.5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>86.4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>28</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>26</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>92.9</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>85.5</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>91.1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>60</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>85.5</v>
       </c>
-      <c r="F12" t="n">
-        <v>66.4</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="F12">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
         <v>85.5</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>96.4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>623</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>480</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>77</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>85.5</v>
       </c>
-      <c r="F14" t="n">
-        <v>79.1</v>
+      <c r="F14">
+        <v>79.099999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,600 +1038,601 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>54.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>44.4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>72.7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>22</v>
       </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>27.3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>15</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>88.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>18</v>
       </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>19</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>84.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>20</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>19</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>95</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>17</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>94.1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>21</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>21</v>
       </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>95</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>16</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>15</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>93.8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>21</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>21</v>
       </c>
-      <c r="E16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>60</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>32</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>27</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>84.4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>50</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>45</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>90</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>34</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>26</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>76.5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>13</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>13</v>
       </c>
-      <c r="E21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>25</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>25</v>
       </c>
-      <c r="E22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>85</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>19</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>22.4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>13</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>38.5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>14</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>7</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>50</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>31</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>30</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>96.8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>28</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>23</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>82.1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>50</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>83.3</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>7</v>
       </c>
-      <c r="E30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>14</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>13</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>92.9</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="E32" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C33" t="n">
-        <v>8</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
         <v>7</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>87.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34"/>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>60</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
-      <c r="C35" t="n">
-        <v>8</v>
-      </c>
-      <c r="D35" t="n">
-        <v>8</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1611,62 +1651,62 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>54.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>44.4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1676,17 +1716,17 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>11</v>
       </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
         <v>72.7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1696,17 +1736,17 @@
       <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1716,17 +1756,17 @@
       <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1736,17 +1776,17 @@
       <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1756,17 +1796,17 @@
       <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>27.3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1776,17 +1816,17 @@
       <c r="C10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>91.7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1796,17 +1836,17 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1816,17 +1856,17 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>50</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1836,17 +1876,17 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1856,17 +1896,17 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1876,17 +1916,17 @@
       <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="F15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1896,17 +1936,17 @@
       <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1916,17 +1956,17 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>7</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>85.7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1936,17 +1976,17 @@
       <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="F18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1956,17 +1996,17 @@
       <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>85.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1976,17 +2016,17 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1996,17 +2036,17 @@
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>7</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>85.7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2016,17 +2056,17 @@
       <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="F22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2036,17 +2076,17 @@
       <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>7</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>7</v>
       </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="F23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2056,17 +2096,17 @@
       <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="F24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2076,17 +2116,17 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>66.7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2096,17 +2136,17 @@
       <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>7</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>7</v>
       </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="F26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2116,17 +2156,17 @@
       <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>7</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>7</v>
       </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="F27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2136,17 +2176,17 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="F28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2156,17 +2196,17 @@
       <c r="C29" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>9</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>9</v>
       </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="F29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2176,17 +2216,17 @@
       <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>7</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="F30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2196,17 +2236,17 @@
       <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>75</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2216,17 +2256,17 @@
       <c r="C32" t="s">
         <v>57</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>11</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>11</v>
       </c>
-      <c r="F32" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="F32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2236,17 +2276,17 @@
       <c r="C33" t="s">
         <v>58</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>5</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="F33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2256,17 +2296,17 @@
       <c r="C34" t="s">
         <v>32</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="F34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2276,17 +2316,17 @@
       <c r="C35" t="s">
         <v>57</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>6</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>85.7</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2296,17 +2336,17 @@
       <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2316,17 +2356,17 @@
       <c r="C37" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="F37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2336,17 +2376,17 @@
       <c r="C38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>5</v>
       </c>
-      <c r="F38" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="F38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2356,17 +2396,17 @@
       <c r="C39" t="s">
         <v>57</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>10</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>10</v>
       </c>
-      <c r="F39" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="F39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2376,17 +2416,17 @@
       <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>4</v>
       </c>
-      <c r="F40" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="F40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2396,17 +2436,17 @@
       <c r="C41" t="s">
         <v>59</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="F41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2416,17 +2456,17 @@
       <c r="C42" t="s">
         <v>64</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>5</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>3</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>60</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2436,17 +2476,17 @@
       <c r="C43" t="s">
         <v>65</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>23</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>19</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>82.6</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2456,17 +2496,17 @@
       <c r="C44" t="s">
         <v>66</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>9</v>
       </c>
-      <c r="E44" t="n">
-        <v>8</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
         <v>88.9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2476,17 +2516,17 @@
       <c r="C45" t="s">
         <v>67</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>27</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>25</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>92.6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2496,17 +2536,17 @@
       <c r="C46" t="s">
         <v>68</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>23</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>20</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>87</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2516,17 +2556,17 @@
       <c r="C47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>21</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>18</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>85.7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2536,17 +2576,17 @@
       <c r="C48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" t="n">
-        <v>8</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
         <v>3</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>37.5</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2556,17 +2596,17 @@
       <c r="C49" t="s">
         <v>71</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>5</v>
       </c>
-      <c r="F49" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="F49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2576,17 +2616,17 @@
       <c r="C50" t="s">
         <v>72</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>7</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>7</v>
       </c>
-      <c r="F50" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="F50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2596,17 +2636,17 @@
       <c r="C51" t="s">
         <v>73</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="F51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2616,17 +2656,17 @@
       <c r="C52" t="s">
         <v>74</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>5</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>5</v>
       </c>
-      <c r="F52" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="F52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2636,17 +2676,17 @@
       <c r="C53" t="s">
         <v>75</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>3</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>3</v>
       </c>
-      <c r="F53" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="F53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2656,17 +2696,17 @@
       <c r="C54" t="s">
         <v>76</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>11</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>11</v>
       </c>
-      <c r="F54" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="F54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2676,17 +2716,17 @@
       <c r="C55" t="s">
         <v>77</v>
       </c>
-      <c r="D55" t="n">
-        <v>8</v>
-      </c>
-      <c r="E55" t="n">
-        <v>8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2696,17 +2736,17 @@
       <c r="C56" t="s">
         <v>78</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>3</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>3</v>
       </c>
-      <c r="F56" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="F56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2716,17 +2756,17 @@
       <c r="C57" t="s">
         <v>79</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>85</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>19</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>22.4</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2736,17 +2776,17 @@
       <c r="C58" t="s">
         <v>80</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>4</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>80</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2756,17 +2796,17 @@
       <c r="C59" t="s">
         <v>81</v>
       </c>
-      <c r="D59" t="n">
-        <v>8</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>12.5</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2776,17 +2816,17 @@
       <c r="C60" t="s">
         <v>82</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>7</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>3</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>42.9</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2796,17 +2836,17 @@
       <c r="C61" t="s">
         <v>83</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>7</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>57.1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -2816,17 +2856,17 @@
       <c r="C62" t="s">
         <v>84</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>31</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>30</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>96.8</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2836,17 +2876,17 @@
       <c r="C63" t="s">
         <v>85</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>16</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>14</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>87.5</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2856,17 +2896,17 @@
       <c r="C64" t="s">
         <v>86</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>12</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>9</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>75</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2876,37 +2916,41 @@
       <c r="C65" t="s">
         <v>87</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
+      <c r="F65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="1">
         <v>1</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" s="1">
         <v>0</v>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="F66" s="2">
+        <f>F67</f>
+        <v>80</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2916,17 +2960,17 @@
       <c r="C67" t="s">
         <v>89</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>5</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>4</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>80</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2936,17 +2980,17 @@
       <c r="C68" t="s">
         <v>90</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="F68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2956,17 +3000,17 @@
       <c r="C69" t="s">
         <v>91</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="F69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -2976,87 +3020,82 @@
       <c r="C70" t="s">
         <v>92</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>6</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>6</v>
       </c>
-      <c r="F70" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="F70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
         <v>47</v>
       </c>
-      <c r="C71"/>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>14</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>13</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>92.9</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
       </c>
-      <c r="C72"/>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>6</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>6</v>
       </c>
-      <c r="F72" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="F72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
       </c>
-      <c r="C73"/>
-      <c r="D73" t="n">
-        <v>8</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
         <v>7</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>87.5</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>5</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>3</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>60</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -3066,34 +3105,34 @@
       <c r="C75" t="s">
         <v>17</v>
       </c>
-      <c r="D75" t="n">
-        <v>8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>8</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -3107,25 +3146,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>262</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>224</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>85.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resultats/resultats_t1_2022.xlsx
+++ b/resultats/resultats_t1_2022.xlsx
@@ -1,322 +1,316 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\PAP 2022\Evaluation_PAP\resultats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Direction" sheetId="1" r:id="rId1"/>
-    <sheet name="Division" sheetId="2" r:id="rId2"/>
-    <sheet name="Service" sheetId="3" r:id="rId3"/>
-    <sheet name="Dossiers_prioritaires" sheetId="4" r:id="rId4"/>
+    <sheet name="Direction" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Division" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Service" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Dossiers_prioritaires" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="96">
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>Nombre de taches prévues</t>
-  </si>
-  <si>
-    <t>Nombre de taches réalisées</t>
-  </si>
-  <si>
-    <t>Taux de réalisation (%)</t>
-  </si>
-  <si>
-    <t>Taux d'exécution dossiers prioritaires (%)</t>
-  </si>
-  <si>
-    <t>Score final (75% taux de réalisation + 25% taux dossiers prioritaires)</t>
-  </si>
-  <si>
-    <t>BCR</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>DCMIS</t>
-  </si>
-  <si>
-    <t>DCNCEE</t>
-  </si>
-  <si>
-    <t>DER</t>
-  </si>
-  <si>
-    <t>DI</t>
-  </si>
-  <si>
-    <t>DRFM</t>
-  </si>
-  <si>
-    <t>DRH</t>
-  </si>
-  <si>
-    <t>DSEDS</t>
-  </si>
-  <si>
-    <t>ENSTAT</t>
-  </si>
-  <si>
-    <t>PNIN</t>
-  </si>
-  <si>
-    <t>USE</t>
-  </si>
-  <si>
-    <t>Ensemble</t>
-  </si>
-  <si>
-    <t>division</t>
-  </si>
-  <si>
-    <t>UAFP</t>
-  </si>
-  <si>
-    <t>UC</t>
-  </si>
-  <si>
-    <t>UMEOT</t>
-  </si>
-  <si>
-    <t>DCSC</t>
-  </si>
-  <si>
-    <t>DDR</t>
-  </si>
-  <si>
-    <t>DIDDA</t>
-  </si>
-  <si>
-    <t>DR/INS/AZ</t>
-  </si>
-  <si>
-    <t>DR/INS/DA</t>
-  </si>
-  <si>
-    <t>DR/INS/DO</t>
-  </si>
-  <si>
-    <t>DR/INS/MI</t>
-  </si>
-  <si>
-    <t>DR/INS/NY</t>
-  </si>
-  <si>
-    <t>DR/INS/TA</t>
-  </si>
-  <si>
-    <t>DR/INS/TI</t>
-  </si>
-  <si>
-    <t>DR/INS/ZR</t>
-  </si>
-  <si>
-    <t>DSIBD</t>
-  </si>
-  <si>
-    <t>DCN</t>
-  </si>
-  <si>
-    <t>DCO</t>
-  </si>
-  <si>
-    <t>DSEE</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>DML</t>
-  </si>
-  <si>
-    <t>DMP/EF</t>
-  </si>
-  <si>
-    <t>DARC</t>
-  </si>
-  <si>
-    <t>DGCFC</t>
-  </si>
-  <si>
-    <t>DED</t>
-  </si>
-  <si>
-    <t>DEPDD</t>
-  </si>
-  <si>
-    <t>DSS</t>
-  </si>
-  <si>
-    <t>DAF/D</t>
-  </si>
-  <si>
-    <t>DFC/R</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>Service de la Coopération et de la Coordination des Statistiques Sectorielles (SCCSS)</t>
-  </si>
-  <si>
-    <t>Service de la Programmation et du Suivi et Evaluation (SPSE)</t>
-  </si>
-  <si>
-    <t>Service des Méthodologies, de la Normalisation et de l’Assurance-Qualité des Statistiques Publiques (SMNAQSP)</t>
-  </si>
-  <si>
-    <t>Service Coordination de la Production Statistique Régionale</t>
-  </si>
-  <si>
-    <t>Documentation, Diffusion et Archives</t>
-  </si>
-  <si>
-    <t>Documentation, Diffusion et et Archives</t>
-  </si>
-  <si>
-    <t>Imprimerie</t>
-  </si>
-  <si>
-    <t>Service  de la Coordination Statistique</t>
-  </si>
-  <si>
-    <t>Service Statistiques Economiques et Sociales</t>
-  </si>
-  <si>
-    <t>SISEF</t>
-  </si>
-  <si>
-    <t>Service de la Coordination Statistique</t>
-  </si>
-  <si>
-    <t>Service Statistques Economique et Sociales</t>
-  </si>
-  <si>
-    <t>SISEF/DIFFA</t>
-  </si>
-  <si>
-    <t>Service  de la Coordination Statisique</t>
-  </si>
-  <si>
-    <t>SBD</t>
-  </si>
-  <si>
-    <t>SCSM</t>
-  </si>
-  <si>
-    <t>SCSPI</t>
-  </si>
-  <si>
-    <t>SSC</t>
-  </si>
-  <si>
-    <t>SSPC</t>
-  </si>
-  <si>
-    <t>SCE</t>
-  </si>
-  <si>
-    <t>SCSE</t>
-  </si>
-  <si>
-    <t>SEE</t>
-  </si>
-  <si>
-    <t>SMAD</t>
-  </si>
-  <si>
-    <t>SOT</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>SAS/R</t>
-  </si>
-  <si>
-    <t>SCOS/AD</t>
-  </si>
-  <si>
-    <t>SEDA/BDS</t>
-  </si>
-  <si>
-    <t>SSM</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>SEF</t>
-  </si>
-  <si>
-    <t>SMP</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>SFC</t>
-  </si>
-  <si>
-    <t>SGC</t>
-  </si>
-  <si>
-    <t>SED</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>SERPDD</t>
-  </si>
-  <si>
-    <t>SIDD</t>
-  </si>
-  <si>
-    <t>SEC</t>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>Dossier</t>
-  </si>
-  <si>
-    <t>Remplacer par le minimum du taux des services de la DSEDS</t>
-  </si>
-  <si>
-    <t>Observation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t xml:space="preserve">structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de taches prévues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de taches réalisées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de réalisation (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux d'exécution dossiers prioritaires (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score final (75% taux de réalisation + 25% taux dossiers prioritaires)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCMIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCNCEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSEDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensemble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMEOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIDDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR/INS/AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR/INS/DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR/INS/DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR/INS/MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR/INS/NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR/INS/TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR/INS/TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR/INS/ZR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSIBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMP/EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DGCFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAF/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFC/R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de réalisation corrigé (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service de la Coopération et de la Coordination des Statistiques Sectorielles (SCCSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service de la Programmation et du Suivi et Evaluation (SPSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service des Méthodologies, de la Normalisation et de l’Assurance-Qualité des Statistiques Publiques (SMNAQSP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Coordination de la Production Statistique Régionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation, Diffusion et Archives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation, Diffusion et et Archives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imprimerie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service  de la Coordination Statistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Statistiques Economiques et Sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service de la Coordination Statistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Statistques Economique et Sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISEF/DIFFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service  de la Coordination Statisique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCSPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS/R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCOS/AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEDA/BDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dossier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,18 +319,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -351,36 +339,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F14" totalsRowShown="0">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F14" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:F14"/>
   <tableColumns count="6">
     <tableColumn id="1" name="structure"/>
@@ -394,8 +364,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E35" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E35" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:E35"/>
   <tableColumns count="5">
     <tableColumn id="1" name="structure"/>
@@ -408,24 +378,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G75" totalsRowShown="0">
-  <autoFilter ref="A1:G75"/>
-  <tableColumns count="7">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H75" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H75"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="structure"/>
     <tableColumn id="2" name="division"/>
     <tableColumn id="3" name="service"/>
     <tableColumn id="4" name="Nombre de taches prévues"/>
     <tableColumn id="5" name="Nombre de taches réalisées"/>
     <tableColumn id="6" name="Taux de réalisation (%)"/>
-    <tableColumn id="7" name="Observation"/>
+    <tableColumn id="7" name="minimun"/>
+    <tableColumn id="8" name="Taux de réalisation corrigé (%)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D2" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Dossier"/>
@@ -715,14 +686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -742,286 +713,284 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>58.3</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>85.5</v>
       </c>
-      <c r="F2">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="n">
+        <v>65.1</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
         <v>72.7</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>85.5</v>
       </c>
-      <c r="F3">
-        <v>75.900000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="n">
+        <v>75.9</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>207</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>188</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>90.8</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>85.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>89.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>116</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>98</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>84.5</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>85.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>84.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
         <v>85.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>96.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>25</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
         <v>85.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>96.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>112</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>31</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>27.7</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>85.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>42.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>59</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>53</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>89.8</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>85.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>88.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>86.7</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>85.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>86.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>28</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>26</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>92.9</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>85.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>91.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>60</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>85.5</v>
       </c>
-      <c r="F12">
-        <v>66.400000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" t="n">
+        <v>66.4</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
         <v>85.5</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>96.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>623</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>480</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>77</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>85.5</v>
       </c>
-      <c r="F14">
-        <v>79.099999999999994</v>
+      <c r="F14" t="n">
+        <v>79.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,601 +1007,600 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>54.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>44.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
         <v>72.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="n">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>88.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>84.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>17</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>94.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>20</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>15</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>93.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>21</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>21</v>
       </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>32</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>27</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>84.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>50</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>45</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>34</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>26</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>76.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>25</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>25</v>
       </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>85</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>19</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>22.4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>13</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>38.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>7</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>31</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>30</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>96.8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>28</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>23</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>82.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>2</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>6</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>5</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>83.3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>7</v>
       </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>14</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>13</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>92.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>6</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>6</v>
       </c>
-      <c r="E32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
+      <c r="C33" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" t="n">
         <v>7</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>87.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="C34">
+      <c r="B34"/>
+      <c r="C34" t="n">
         <v>5</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>3</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
-      <c r="C35">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-      <c r="E35">
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1652,61 +1620,85 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="C2"/>
+      <c r="D2" t="n">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="C3"/>
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="C4"/>
+      <c r="D4" t="n">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>44.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1716,17 +1708,23 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1734,19 +1732,25 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1754,19 +1758,25 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1774,19 +1784,25 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1794,19 +1810,25 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="D9" t="n">
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1814,19 +1836,25 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="D10" t="n">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>91.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1834,19 +1862,25 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1854,19 +1888,25 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12">
+        <v>58</v>
+      </c>
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1876,17 +1916,23 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1894,19 +1940,25 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14">
+        <v>59</v>
+      </c>
+      <c r="D14" t="n">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>5</v>
       </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1914,19 +1966,25 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="D15" t="n">
         <v>6</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1934,19 +1992,25 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16">
+        <v>61</v>
+      </c>
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1956,17 +2020,23 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>7</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>6</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1974,19 +2044,25 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18">
+        <v>62</v>
+      </c>
+      <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>4</v>
       </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1994,19 +2070,25 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19">
+        <v>63</v>
+      </c>
+      <c r="D19" t="n">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>6</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2014,19 +2096,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20">
+        <v>64</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2036,17 +2124,23 @@
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>7</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>6</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2054,19 +2148,25 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22">
+        <v>59</v>
+      </c>
+      <c r="D22" t="n">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2074,19 +2174,25 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="D23" t="n">
         <v>7</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>7</v>
       </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2094,19 +2200,25 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24">
+        <v>61</v>
+      </c>
+      <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2116,17 +2228,23 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>66.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2134,19 +2252,25 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="D26" t="n">
         <v>7</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>7</v>
       </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2154,19 +2278,25 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>7</v>
       </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2176,17 +2306,23 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>5</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>5</v>
       </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2194,19 +2330,25 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29">
+        <v>59</v>
+      </c>
+      <c r="D29" t="n">
         <v>9</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>9</v>
       </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2214,19 +2356,25 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="D30" t="n">
         <v>7</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>7</v>
       </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2236,17 +2384,23 @@
       <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>4</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2254,19 +2408,25 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32">
+        <v>59</v>
+      </c>
+      <c r="D32" t="n">
         <v>11</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>11</v>
       </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2274,19 +2434,25 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="D33" t="n">
         <v>5</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>5</v>
       </c>
-      <c r="F33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2296,17 +2462,23 @@
       <c r="C34" t="s">
         <v>32</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>2</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2314,19 +2486,25 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35">
+        <v>59</v>
+      </c>
+      <c r="D35" t="n">
         <v>7</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>6</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2334,19 +2512,25 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36">
+        <v>60</v>
+      </c>
+      <c r="D36" t="n">
         <v>6</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>6</v>
       </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" t="n">
+        <v>100</v>
+      </c>
+      <c r="G36" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2354,19 +2538,25 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37">
+        <v>61</v>
+      </c>
+      <c r="D37" t="n">
         <v>1</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="F37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" t="n">
+        <v>100</v>
+      </c>
+      <c r="G37" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2376,17 +2566,23 @@
       <c r="C38" t="s">
         <v>33</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>5</v>
       </c>
-      <c r="F38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2394,19 +2590,25 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39">
+        <v>59</v>
+      </c>
+      <c r="D39" t="n">
         <v>10</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>10</v>
       </c>
-      <c r="F39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" t="n">
+        <v>100</v>
+      </c>
+      <c r="G39" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2414,19 +2616,25 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>4</v>
       </c>
-      <c r="F40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2434,19 +2642,25 @@
         <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41">
+        <v>61</v>
+      </c>
+      <c r="D41" t="n">
         <v>2</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2454,19 +2668,25 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42">
+        <v>66</v>
+      </c>
+      <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>3</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2474,19 +2694,25 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43">
+        <v>67</v>
+      </c>
+      <c r="D43" t="n">
         <v>23</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>19</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>82.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2494,19 +2720,25 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44">
+        <v>68</v>
+      </c>
+      <c r="D44" t="n">
         <v>9</v>
       </c>
-      <c r="E44">
-        <v>8</v>
-      </c>
-      <c r="F44">
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
         <v>88.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2514,19 +2746,25 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45">
+        <v>69</v>
+      </c>
+      <c r="D45" t="n">
         <v>27</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>25</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>92.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2534,19 +2772,25 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="D46" t="n">
         <v>23</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>20</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2554,19 +2798,25 @@
         <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47">
+        <v>71</v>
+      </c>
+      <c r="D47" t="n">
         <v>21</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>18</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2574,19 +2824,25 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-      <c r="E48">
+        <v>72</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
         <v>3</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2594,19 +2850,25 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49">
+        <v>73</v>
+      </c>
+      <c r="D49" t="n">
         <v>5</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>5</v>
       </c>
-      <c r="F49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49" t="n">
+        <v>100</v>
+      </c>
+      <c r="G49" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2614,19 +2876,25 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50">
+        <v>74</v>
+      </c>
+      <c r="D50" t="n">
         <v>7</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>7</v>
       </c>
-      <c r="F50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>100</v>
+      </c>
+      <c r="H50" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2634,19 +2902,25 @@
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51">
+        <v>75</v>
+      </c>
+      <c r="D51" t="n">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" t="n">
+        <v>100</v>
+      </c>
+      <c r="G51" t="n">
+        <v>100</v>
+      </c>
+      <c r="H51" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2654,19 +2928,25 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52">
+        <v>76</v>
+      </c>
+      <c r="D52" t="n">
         <v>5</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>5</v>
       </c>
-      <c r="F52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F52" t="n">
+        <v>100</v>
+      </c>
+      <c r="G52" t="n">
+        <v>100</v>
+      </c>
+      <c r="H52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2674,19 +2954,25 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53">
+        <v>77</v>
+      </c>
+      <c r="D53" t="n">
         <v>3</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>100</v>
+      </c>
+      <c r="H53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2694,19 +2980,25 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54">
+        <v>78</v>
+      </c>
+      <c r="D54" t="n">
         <v>11</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>11</v>
       </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F54" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" t="n">
+        <v>100</v>
+      </c>
+      <c r="H54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2714,19 +3006,25 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>8</v>
-      </c>
-      <c r="F55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>100</v>
+      </c>
+      <c r="G55" t="n">
+        <v>100</v>
+      </c>
+      <c r="H55" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2734,19 +3032,25 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56">
+        <v>80</v>
+      </c>
+      <c r="D56" t="n">
         <v>3</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>3</v>
       </c>
-      <c r="F56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100</v>
+      </c>
+      <c r="H56" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2754,19 +3058,25 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57">
+        <v>81</v>
+      </c>
+      <c r="D57" t="n">
         <v>85</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>19</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2774,19 +3084,25 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="n">
         <v>80</v>
       </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-      <c r="F58">
+      <c r="G58" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H58" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2794,19 +3110,25 @@
         <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59">
-        <v>8</v>
-      </c>
-      <c r="E59">
+        <v>83</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="n">
         <v>1</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2814,19 +3136,25 @@
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60">
+        <v>84</v>
+      </c>
+      <c r="D60" t="n">
         <v>7</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>3</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>42.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2834,19 +3162,25 @@
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61">
+        <v>85</v>
+      </c>
+      <c r="D61" t="n">
         <v>7</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>4</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -2854,19 +3188,25 @@
         <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62">
+        <v>86</v>
+      </c>
+      <c r="D62" t="n">
         <v>31</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>30</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>96.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="n">
+        <v>75</v>
+      </c>
+      <c r="H62" t="n">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2874,19 +3214,25 @@
         <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63">
+        <v>87</v>
+      </c>
+      <c r="D63" t="n">
         <v>16</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>14</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="n">
+        <v>75</v>
+      </c>
+      <c r="H63" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2894,19 +3240,25 @@
         <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64">
+        <v>88</v>
+      </c>
+      <c r="D64" t="n">
         <v>12</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>9</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G64" t="n">
+        <v>75</v>
+      </c>
+      <c r="H64" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2914,43 +3266,51 @@
         <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65">
+        <v>89</v>
+      </c>
+      <c r="D65" t="n">
         <v>1</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>1</v>
       </c>
-      <c r="F65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>80</v>
+      </c>
+      <c r="H65" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="n">
         <v>1</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" t="n">
         <v>0</v>
       </c>
-      <c r="F66" s="2">
-        <f>F67</f>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>80</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2958,19 +3318,25 @@
         <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67">
+        <v>91</v>
+      </c>
+      <c r="D67" t="n">
         <v>5</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>4</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G67" t="n">
+        <v>80</v>
+      </c>
+      <c r="H67" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2978,19 +3344,25 @@
         <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68">
+        <v>92</v>
+      </c>
+      <c r="D68" t="n">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>1</v>
       </c>
-      <c r="F68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
+        <v>80</v>
+      </c>
+      <c r="H68" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2998,19 +3370,25 @@
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69">
+        <v>93</v>
+      </c>
+      <c r="D69" t="n">
         <v>1</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>1</v>
       </c>
-      <c r="F69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F69" t="n">
+        <v>100</v>
+      </c>
+      <c r="G69" t="n">
+        <v>80</v>
+      </c>
+      <c r="H69" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3018,84 +3396,119 @@
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70">
+        <v>94</v>
+      </c>
+      <c r="D70" t="n">
         <v>6</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>6</v>
       </c>
-      <c r="F70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F70" t="n">
+        <v>100</v>
+      </c>
+      <c r="G70" t="n">
+        <v>80</v>
+      </c>
+      <c r="H70" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
         <v>47</v>
       </c>
-      <c r="D71">
+      <c r="C71"/>
+      <c r="D71" t="n">
         <v>14</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>13</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>92.9</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G71" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>15</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
       </c>
-      <c r="D72">
+      <c r="C72"/>
+      <c r="D72" t="n">
         <v>6</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>6</v>
       </c>
-      <c r="F72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F72" t="n">
+        <v>100</v>
+      </c>
+      <c r="G72" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
         <v>15</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
       </c>
-      <c r="D73">
-        <v>8</v>
-      </c>
-      <c r="E73">
+      <c r="C73"/>
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="n">
         <v>7</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G73" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>16</v>
       </c>
-      <c r="D74">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74" t="n">
         <v>5</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>3</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G74" t="n">
+        <v>60</v>
+      </c>
+      <c r="H74" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -3105,36 +3518,42 @@
       <c r="C75" t="s">
         <v>17</v>
       </c>
-      <c r="D75">
-        <v>8</v>
-      </c>
-      <c r="E75">
-        <v>8</v>
-      </c>
-      <c r="F75">
+      <c r="D75" t="n">
+        <v>8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100</v>
+      </c>
+      <c r="G75" t="n">
+        <v>100</v>
+      </c>
+      <c r="H75" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3146,25 +3565,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>262</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>224</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>85.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resultats/resultats_t1_2022.xlsx
+++ b/resultats/resultats_t1_2022.xlsx
@@ -167,7 +167,7 @@
     <t xml:space="preserve">service</t>
   </si>
   <si>
-    <t xml:space="preserve">minimun</t>
+    <t xml:space="preserve">minimum</t>
   </si>
   <si>
     <t xml:space="preserve">Taux de réalisation corrigé (%)</t>
@@ -388,7 +388,7 @@
     <tableColumn id="4" name="Nombre de taches prévues"/>
     <tableColumn id="5" name="Nombre de taches réalisées"/>
     <tableColumn id="6" name="Taux de réalisation (%)"/>
-    <tableColumn id="7" name="minimun"/>
+    <tableColumn id="7" name="minimum"/>
     <tableColumn id="8" name="Taux de réalisation corrigé (%)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>

--- a/resultats/resultats_t1_2022.xlsx
+++ b/resultats/resultats_t1_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t xml:space="preserve">structure</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t xml:space="preserve">Documentation, Diffusion et Archives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation, Diffusion et et Archives</t>
   </si>
   <si>
     <t xml:space="preserve">Imprimerie</t>
@@ -379,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H75" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:H75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H74" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H74"/>
   <tableColumns count="8">
     <tableColumn id="1" name="structure"/>
     <tableColumn id="2" name="division"/>
@@ -1839,19 +1836,19 @@
         <v>56</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>91.7</v>
+        <v>93.3</v>
       </c>
       <c r="G10" t="n">
         <v>27.3</v>
       </c>
       <c r="H10" t="n">
-        <v>91.7</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="11">
@@ -1865,19 +1862,19 @@
         <v>57</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
         <v>27.3</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1885,25 +1882,25 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>27.3</v>
       </c>
       <c r="H12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1914,13 +1911,13 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
@@ -1943,10 +1940,10 @@
         <v>59</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>100</v>
@@ -1969,10 +1966,10 @@
         <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
@@ -1989,25 +1986,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>85.7</v>
       </c>
       <c r="G16" t="n">
         <v>27.3</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="17">
@@ -2018,22 +2015,22 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
         <v>27.3</v>
       </c>
       <c r="H17" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2047,19 +2044,19 @@
         <v>62</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>85.7</v>
       </c>
       <c r="G18" t="n">
         <v>27.3</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="19">
@@ -2073,19 +2070,19 @@
         <v>63</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>27.3</v>
       </c>
       <c r="H19" t="n">
-        <v>85.7</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="20">
@@ -2093,25 +2090,25 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>85.7</v>
       </c>
       <c r="G20" t="n">
         <v>27.3</v>
       </c>
       <c r="H20" t="n">
-        <v>27.3</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="21">
@@ -2122,22 +2119,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
         <v>27.3</v>
       </c>
       <c r="H21" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -2151,10 +2148,10 @@
         <v>59</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>100</v>
@@ -2177,10 +2174,10 @@
         <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>100</v>
@@ -2197,25 +2194,25 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="G24" t="n">
         <v>27.3</v>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="25">
@@ -2226,22 +2223,22 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
         <v>27.3</v>
       </c>
       <c r="H25" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -2252,7 +2249,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D26" t="n">
         <v>7</v>
@@ -2275,16 +2272,16 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>100</v>
@@ -2304,13 +2301,13 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>100</v>
@@ -2333,10 +2330,10 @@
         <v>59</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>100</v>
@@ -2353,25 +2350,25 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G30" t="n">
         <v>27.3</v>
       </c>
       <c r="H30" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -2382,22 +2379,22 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
         <v>27.3</v>
       </c>
       <c r="H31" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -2411,10 +2408,10 @@
         <v>59</v>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
         <v>100</v>
@@ -2431,16 +2428,16 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>100</v>
@@ -2460,22 +2457,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>85.7</v>
       </c>
       <c r="G34" t="n">
         <v>27.3</v>
       </c>
       <c r="H34" t="n">
-        <v>100</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="35">
@@ -2489,19 +2486,19 @@
         <v>59</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
         <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
         <v>27.3</v>
       </c>
       <c r="H35" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -2515,10 +2512,10 @@
         <v>60</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>100</v>
@@ -2535,16 +2532,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>100</v>
@@ -2564,13 +2561,13 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
@@ -2593,10 +2590,10 @@
         <v>59</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>100</v>
@@ -2619,10 +2616,10 @@
         <v>60</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>100</v>
@@ -2639,51 +2636,51 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G41" t="n">
         <v>27.3</v>
       </c>
       <c r="H41" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
         <v>66</v>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F42" t="n">
-        <v>60</v>
+        <v>82.6</v>
       </c>
       <c r="G42" t="n">
-        <v>27.3</v>
+        <v>37.5</v>
       </c>
       <c r="H42" t="n">
-        <v>60</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="43">
@@ -2697,19 +2694,19 @@
         <v>67</v>
       </c>
       <c r="D43" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>82.6</v>
+        <v>88.9</v>
       </c>
       <c r="G43" t="n">
         <v>37.5</v>
       </c>
       <c r="H43" t="n">
-        <v>82.6</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="44">
@@ -2717,25 +2714,25 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>88.9</v>
+        <v>92.6</v>
       </c>
       <c r="G44" t="n">
         <v>37.5</v>
       </c>
       <c r="H44" t="n">
-        <v>88.9</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="45">
@@ -2749,19 +2746,19 @@
         <v>69</v>
       </c>
       <c r="D45" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E45" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F45" t="n">
-        <v>92.6</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>37.5</v>
       </c>
       <c r="H45" t="n">
-        <v>92.6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -2769,25 +2766,25 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>70</v>
       </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F46" t="n">
-        <v>87</v>
+        <v>85.7</v>
       </c>
       <c r="G46" t="n">
         <v>37.5</v>
       </c>
       <c r="H46" t="n">
-        <v>87</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="47">
@@ -2801,19 +2798,19 @@
         <v>71</v>
       </c>
       <c r="D47" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>85.7</v>
+        <v>37.5</v>
       </c>
       <c r="G47" t="n">
         <v>37.5</v>
       </c>
       <c r="H47" t="n">
-        <v>85.7</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="48">
@@ -2827,42 +2824,42 @@
         <v>72</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
         <v>37.5</v>
       </c>
       <c r="H48" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>73</v>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
         <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
         <v>100</v>
@@ -2879,10 +2876,10 @@
         <v>74</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>100</v>
@@ -2905,10 +2902,10 @@
         <v>75</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>100</v>
@@ -2922,19 +2919,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>76</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>100</v>
@@ -2957,10 +2954,10 @@
         <v>77</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F53" t="n">
         <v>100</v>
@@ -2983,10 +2980,10 @@
         <v>78</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>100</v>
@@ -3009,10 +3006,10 @@
         <v>79</v>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>100</v>
@@ -3026,28 +3023,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
         <v>80</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>22.4</v>
       </c>
       <c r="G56" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="H56" t="n">
-        <v>100</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="57">
@@ -3055,25 +3052,25 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
         <v>81</v>
       </c>
       <c r="D57" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>22.4</v>
+        <v>80</v>
       </c>
       <c r="G57" t="n">
         <v>12.5</v>
       </c>
       <c r="H57" t="n">
-        <v>22.4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -3087,19 +3084,19 @@
         <v>82</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>80</v>
+        <v>12.5</v>
       </c>
       <c r="G58" t="n">
         <v>12.5</v>
       </c>
       <c r="H58" t="n">
-        <v>80</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="59">
@@ -3107,25 +3104,25 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
         <v>83</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>12.5</v>
+        <v>42.9</v>
       </c>
       <c r="G59" t="n">
         <v>12.5</v>
       </c>
       <c r="H59" t="n">
-        <v>12.5</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="60">
@@ -3142,42 +3139,42 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>42.9</v>
+        <v>57.1</v>
       </c>
       <c r="G60" t="n">
         <v>12.5</v>
       </c>
       <c r="H60" t="n">
-        <v>42.9</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
         <v>85</v>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
-        <v>57.1</v>
+        <v>96.8</v>
       </c>
       <c r="G61" t="n">
-        <v>12.5</v>
+        <v>75</v>
       </c>
       <c r="H61" t="n">
-        <v>57.1</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="62">
@@ -3185,25 +3182,25 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
         <v>86</v>
       </c>
       <c r="D62" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F62" t="n">
-        <v>96.8</v>
+        <v>87.5</v>
       </c>
       <c r="G62" t="n">
         <v>75</v>
       </c>
       <c r="H62" t="n">
-        <v>96.8</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="63">
@@ -3217,45 +3214,45 @@
         <v>87</v>
       </c>
       <c r="D63" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="G63" t="n">
         <v>75</v>
       </c>
       <c r="H63" t="n">
-        <v>87.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
         <v>88</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H64" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
@@ -3272,16 +3269,16 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>80</v>
       </c>
       <c r="H65" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -3289,19 +3286,19 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
         <v>90</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G66" t="n">
         <v>80</v>
@@ -3321,19 +3318,19 @@
         <v>91</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
         <v>80</v>
       </c>
       <c r="H67" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
@@ -3341,7 +3338,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
         <v>92</v>
@@ -3373,10 +3370,10 @@
         <v>93</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>100</v>
@@ -3390,28 +3387,26 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="n">
         <v>14</v>
       </c>
-      <c r="B70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6</v>
-      </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>92.9</v>
       </c>
       <c r="G70" t="n">
-        <v>80</v>
+        <v>87.5</v>
       </c>
       <c r="H70" t="n">
-        <v>100</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="71">
@@ -3419,23 +3414,23 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>92.9</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
         <v>87.5</v>
       </c>
       <c r="H71" t="n">
-        <v>92.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
@@ -3443,94 +3438,70 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="G72" t="n">
         <v>87.5</v>
       </c>
       <c r="H72" t="n">
-        <v>100</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" t="s">
-        <v>48</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B73"/>
       <c r="C73"/>
       <c r="D73" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>87.5</v>
+        <v>60</v>
       </c>
       <c r="G73" t="n">
-        <v>87.5</v>
+        <v>60</v>
       </c>
       <c r="H73" t="n">
-        <v>87.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74"/>
-      <c r="C74"/>
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H74" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" t="n">
-        <v>8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>100</v>
-      </c>
-      <c r="G75" t="n">
-        <v>100</v>
-      </c>
-      <c r="H75" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3553,7 +3524,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
